--- a/Backlog_sprint_3.xlsx
+++ b/Backlog_sprint_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\VenteArbre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="94">
   <si>
     <t>ID</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>En tant qu'utilisateur, je veux avoir accès aux informations concernant le processus de la cueillette des arbres afin de pouvoir aller chercher les produits que j'ai achetés.</t>
+  </si>
+  <si>
+    <t>Il faut faire l'enregistrement du point de distribution après avoir payé</t>
   </si>
 </sst>
 </file>
@@ -2010,7 +2013,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2059,35 +2062,35 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2100,6 +2103,11 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
